--- a/translation_files/userManagement_Translation_v2.2.xlsx
+++ b/translation_files/userManagement_Translation_v2.2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="435">
   <si>
     <t>locale_key</t>
   </si>
@@ -1302,9 +1302,6 @@
     <t>bad_gateway_message</t>
   </si>
   <si>
-    <t>unkonw_token</t>
-  </si>
-  <si>
     <t>Error 502 Bad Gateway</t>
   </si>
   <si>
@@ -1317,9 +1314,6 @@
     <t>$$$authenticate_failed</t>
   </si>
   <si>
-    <t>Application Authenticate Failed</t>
-  </si>
-  <si>
     <t>502 Bad Gateway</t>
   </si>
   <si>
@@ -1327,6 +1321,15 @@
   </si>
   <si>
     <t>Status : Unknown Token.</t>
+  </si>
+  <si>
+    <t>Added translation for supporting SAML AD login</t>
+  </si>
+  <si>
+    <t>Application Authentication Failed</t>
+  </si>
+  <si>
+    <t>unknown_token</t>
   </si>
 </sst>
 </file>
@@ -1336,11 +1339,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1466,27 +1476,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1499,26 +1512,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1805,7 +1820,7 @@
   <dimension ref="C3:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,12 +1834,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -2102,7 +2117,7 @@
       <c r="E23" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>412</v>
       </c>
     </row>
@@ -2110,21 +2125,29 @@
       <c r="C24" s="4">
         <v>42808</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>2.1</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="C25" s="22">
+        <v>42901</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
@@ -2169,8 +2192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="D201" sqref="D201"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2183,16 +2206,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2363,14 +2386,14 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2459,14 +2482,14 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2844,7 +2867,7 @@
       <c r="B56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -2877,24 +2900,24 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="17" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -3654,10 +3677,10 @@
       <c r="B125" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C125" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D125" s="18" t="s">
         <v>371</v>
       </c>
     </row>
@@ -3693,7 +3716,7 @@
       <c r="B128" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C128" s="19" t="s">
+      <c r="C128" s="18" t="s">
         <v>249</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -3707,7 +3730,7 @@
       <c r="B129" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C129" s="19" t="s">
+      <c r="C129" s="18" t="s">
         <v>250</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -3754,7 +3777,7 @@
       <c r="B133" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="19" t="s">
         <v>285</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -3812,16 +3835,16 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="B138" s="21" t="s">
+      <c r="B138" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C138" s="21" t="s">
+      <c r="C138" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="D138" s="21" t="s">
+      <c r="D138" s="20" t="s">
         <v>373</v>
       </c>
     </row>
@@ -3923,14 +3946,14 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="15" t="s">
+      <c r="A147" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B147" s="15" t="s">
+      <c r="B147" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15" t="s">
+      <c r="C147" s="14"/>
+      <c r="D147" s="14" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4599,59 +4622,59 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="22" t="s">
+      <c r="A198" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="B198" s="22" t="s">
+      <c r="B198" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C198" s="22" t="s">
+      <c r="C198" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="D198" s="21" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="B199" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="D199" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="D198" s="22" t="s">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="B200" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="D200" s="21" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="B199" s="22" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="B201" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C199" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="D199" s="22" t="s">
+      <c r="C201" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D201" s="21" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="B200" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C200" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="D200" s="22" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="B201" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C201" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="D201" s="22" t="s">
-        <v>433</v>
       </c>
     </row>
   </sheetData>
